--- a/outputs-r202/g__Weimerbacter.xlsx
+++ b/outputs-r202/g__Weimerbacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__Weimerbacter sp900316165</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900316165</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__Weimerbacter sp900317825</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900317825</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -589,6 +604,11 @@
         <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900317825</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>s__Weimerbacter sp900317825</t>
         </is>
